--- a/similarities/split_global/harmonic_similarity_timestamps_402.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_402.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:16.840000', '0:00:24.560000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:08.740000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:11.100000', '0:00:21.800000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=11.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:21.140000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:55.760000')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'E/4', 'D/5', 'A']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'A', 'E']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:30.470000', '0:00:37.280000')]</t>
+          <t>('0:02:08.160000', '0:02:09.880000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:08.504874')]</t>
+          <t>('0:00:31.840929', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=30.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=128.16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=0.440395']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:14.840000')]</t>
+          <t>('0:00:07.140000', '0:00:14.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:26.360000', '0:00:34.360000')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>jaah_24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'G#']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:14.032548', '0:00:17.979940')]</t>
+          <t>('0:00:37.490000', '0:00:43.170000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:16.320000', '0:01:24.100000')]</t>
+          <t>('0:00:16.880000', '0:00:20.150000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=14.032548']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-24#t=37.49</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=76.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=16.88</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:41.440000', '0:01:52.400000')]</t>
+          <t>('0:00:07.560000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:30.140000', '0:01:38.780000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=101.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=90.14']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C']]</t>
+          <t>['C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>['D', 'G:7', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:20.956000', '0:01:25.176000')]</t>
+          <t>('0:00:00.400000', '0:00:05.010000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.196848', '0:00:18.779705')]</t>
+          <t>('0:02:19.240204', '0:02:24.766553')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=0.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=12.196848']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=139.240204</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:maj', 'C:maj', 'G/3', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:37.216349'), ('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:01:26.923922', '0:01:33.181700')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:05.146000', '0:00:12.446000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=145.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>jaah_28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>jaah_45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:03.200000', '0:00:06.960000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000'), ('0:00:21.940000', '0:00:27.520000')]</t>
+          <t>('0:01:00.690000', '0:01:05.210000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-28#t=3.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=60.69</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+          <t>('0:01:00.898000', '0:01:07.056000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=6.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_41</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:16.360000')]</t>
+          <t>('0:00:56.279931', '0:01:00.633673')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+          <t>('0:03:07.440000', '0:03:10.020000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-41#t=56.279931</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=187.44</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
